--- a/project/support/Inquerito Respostas/Eu/Sergio Santos.xlsx
+++ b/project/support/Inquerito Respostas/Eu/Sergio Santos.xlsx
@@ -363,8 +363,8 @@
   </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -485,7 +485,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -519,7 +519,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -553,7 +553,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -638,7 +638,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -655,7 +655,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/project/support/Inquerito Respostas/Eu/Sergio Santos.xlsx
+++ b/project/support/Inquerito Respostas/Eu/Sergio Santos.xlsx
@@ -363,8 +363,8 @@
   </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -485,7 +485,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -519,7 +519,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -638,7 +638,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -655,7 +655,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -672,7 +672,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -689,7 +689,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/project/support/Inquerito Respostas/Eu/Sergio Santos.xlsx
+++ b/project/support/Inquerito Respostas/Eu/Sergio Santos.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Nome:</t>
   </si>
   <si>
-    <t xml:space="preserve">Sérgio Santos</t>
+    <t xml:space="preserve">Sérgio Santos                    Técnico de montagem</t>
   </si>
   <si>
     <t xml:space="preserve">A afirmação não se aplica rigorosamente nada à minha organização</t>
@@ -363,8 +363,8 @@
   </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
